--- a/backend/processdata/data/excel/card_info.xlsx
+++ b/backend/processdata/data/excel/card_info.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="134">
   <si>
     <t>苹果喵小料到货总览（）</t>
   </si>
@@ -116,63 +116,63 @@
     <t>八重神子</t>
   </si>
   <si>
+    <t>苍翠心语</t>
+  </si>
+  <si>
+    <t>樱の风语</t>
+  </si>
+  <si>
+    <t>温迪</t>
+  </si>
+  <si>
+    <t>白草绘梦</t>
+  </si>
+  <si>
+    <t>冰霜之舞</t>
+  </si>
+  <si>
+    <t>优菈</t>
+  </si>
+  <si>
+    <t>镭射票</t>
+  </si>
+  <si>
+    <t>（没下印的别急呜呜呜呜呜呜呜 可能1.因为是社畜所以特别忙  2.没想好合适的车）</t>
+  </si>
+  <si>
+    <t>梦中的婚礼</t>
+  </si>
+  <si>
+    <t>神里绫华</t>
+  </si>
+  <si>
+    <t>流沙麻将</t>
+  </si>
+  <si>
+    <t>打样ing</t>
+  </si>
+  <si>
+    <t>星萤之音</t>
+  </si>
+  <si>
+    <t>阿贝多</t>
+  </si>
+  <si>
+    <t>闲逸远望</t>
+  </si>
+  <si>
+    <t>甘雨</t>
+  </si>
+  <si>
+    <t>下午茶甜点</t>
+  </si>
+  <si>
+    <t>神子/纳西妲/心海</t>
+  </si>
+  <si>
     <t>已下印</t>
   </si>
   <si>
-    <t>苍翠心语</t>
-  </si>
-  <si>
-    <t>樱の风语</t>
-  </si>
-  <si>
-    <t>温迪</t>
-  </si>
-  <si>
-    <t>白草绘梦</t>
-  </si>
-  <si>
-    <t>冰霜之舞</t>
-  </si>
-  <si>
-    <t>优菈</t>
-  </si>
-  <si>
-    <t>镭射票</t>
-  </si>
-  <si>
-    <t>（没下印的别急呜呜呜呜呜呜呜 可能1.因为是社畜所以特别忙  2.没想好合适的车）</t>
-  </si>
-  <si>
-    <t>梦中的婚礼</t>
-  </si>
-  <si>
-    <t>神里绫华</t>
-  </si>
-  <si>
-    <t>流沙麻将</t>
-  </si>
-  <si>
-    <t>打样ing</t>
-  </si>
-  <si>
-    <t>星萤之音</t>
-  </si>
-  <si>
-    <t>阿贝多</t>
-  </si>
-  <si>
-    <t>闲逸远望</t>
-  </si>
-  <si>
-    <t>甘雨</t>
-  </si>
-  <si>
-    <t>下午茶甜点</t>
-  </si>
-  <si>
-    <t>神子/纳西妲/心海</t>
-  </si>
-  <si>
     <t>凑车中</t>
   </si>
   <si>
@@ -197,132 +197,138 @@
     <t>真珠之贝</t>
   </si>
   <si>
+    <t>绮焰暖阳</t>
+  </si>
+  <si>
+    <t>宵宫（生贺）</t>
+  </si>
+  <si>
+    <t>吧唧</t>
+  </si>
+  <si>
+    <t>泪影盈瞳</t>
+  </si>
+  <si>
+    <t>夏日烟火</t>
+  </si>
+  <si>
+    <t>影的日常</t>
+  </si>
+  <si>
+    <t>雷电将军（生贺）</t>
+  </si>
+  <si>
+    <t>宫司祝祷</t>
+  </si>
+  <si>
+    <t>八重神子（生贺）</t>
+  </si>
+  <si>
+    <t>深海游鱼</t>
+  </si>
+  <si>
+    <t>风灵轻语</t>
+  </si>
+  <si>
+    <t>祭典之旅</t>
+  </si>
+  <si>
+    <t>往生之梦</t>
+  </si>
+  <si>
+    <t>胡桃（生贺）</t>
+  </si>
+  <si>
+    <t>色纸</t>
+  </si>
+  <si>
+    <t>影宝OL</t>
+  </si>
+  <si>
+    <t>立牌</t>
+  </si>
+  <si>
+    <t>烟花来咯</t>
+  </si>
+  <si>
+    <t>赤团开时</t>
+  </si>
+  <si>
+    <t>水莲之舞</t>
+  </si>
+  <si>
+    <t>妮露</t>
+  </si>
+  <si>
+    <t>BOOM Winter</t>
+  </si>
+  <si>
+    <t>可莉（生贺）</t>
+  </si>
+  <si>
+    <t>林中花语</t>
+  </si>
+  <si>
+    <t>繁花入梦</t>
+  </si>
+  <si>
+    <t>Cecilia Flower</t>
+  </si>
+  <si>
+    <t>无害甜度</t>
+  </si>
+  <si>
+    <t>砂糖</t>
+  </si>
+  <si>
+    <t>工作还没做完</t>
+  </si>
+  <si>
+    <t>明信片</t>
+  </si>
+  <si>
+    <t>谧海微光</t>
+  </si>
+  <si>
+    <t>鸣樱之舞</t>
+  </si>
+  <si>
+    <t>深海的约定</t>
+  </si>
+  <si>
+    <t>企划</t>
+  </si>
+  <si>
+    <t>谷子状态</t>
+  </si>
+  <si>
+    <t>深海之灵</t>
+  </si>
+  <si>
+    <t>拍立得/sp拍立得</t>
+  </si>
+  <si>
+    <t>海月</t>
+  </si>
+  <si>
+    <t>先行普麻</t>
+  </si>
+  <si>
+    <t>第一批已下印</t>
+  </si>
+  <si>
+    <t>第二批成团！！（连夜下印ing）</t>
+  </si>
+  <si>
+    <t>归离集</t>
+  </si>
+  <si>
+    <t>4*4小麻将</t>
+  </si>
+  <si>
     <t>已打样</t>
   </si>
   <si>
-    <t>绮焰暖阳</t>
-  </si>
-  <si>
-    <t>宵宫（生贺）</t>
-  </si>
-  <si>
-    <t>吧唧</t>
-  </si>
-  <si>
-    <t>泪影盈瞳</t>
-  </si>
-  <si>
-    <t>夏日烟火</t>
-  </si>
-  <si>
-    <t>影的日常</t>
-  </si>
-  <si>
-    <t>雷电将军（生贺）</t>
-  </si>
-  <si>
-    <t>宫司祝祷</t>
-  </si>
-  <si>
-    <t>八重神子（生贺）</t>
-  </si>
-  <si>
-    <t>深海游鱼</t>
-  </si>
-  <si>
-    <t>风灵轻语</t>
-  </si>
-  <si>
-    <t>祭典之旅</t>
-  </si>
-  <si>
-    <t>往生之梦</t>
-  </si>
-  <si>
-    <t>胡桃（生贺）</t>
-  </si>
-  <si>
-    <t>色纸</t>
-  </si>
-  <si>
-    <t>影宝OL</t>
-  </si>
-  <si>
-    <t>立牌</t>
-  </si>
-  <si>
-    <t>烟花来咯</t>
-  </si>
-  <si>
-    <t>赤团开时</t>
-  </si>
-  <si>
-    <t>水莲之舞</t>
-  </si>
-  <si>
-    <t>妮露</t>
-  </si>
-  <si>
-    <t>BOOM Winter</t>
-  </si>
-  <si>
-    <t>可莉（生贺）</t>
-  </si>
-  <si>
-    <t>林中花语</t>
-  </si>
-  <si>
-    <t>繁花入梦</t>
-  </si>
-  <si>
-    <t>Cecilia Flower</t>
-  </si>
-  <si>
-    <t>无害甜度</t>
-  </si>
-  <si>
-    <t>砂糖</t>
-  </si>
-  <si>
-    <t>工作还没做完</t>
-  </si>
-  <si>
-    <t>明信片</t>
-  </si>
-  <si>
-    <t>谧海微光</t>
-  </si>
-  <si>
-    <t>鸣樱之舞</t>
-  </si>
-  <si>
-    <t>企划</t>
-  </si>
-  <si>
-    <t>谷子状态</t>
-  </si>
-  <si>
-    <t>深海之灵</t>
-  </si>
-  <si>
-    <t>海月</t>
-  </si>
-  <si>
-    <t>先行普麻</t>
-  </si>
-  <si>
-    <t>第一批已下印</t>
-  </si>
-  <si>
-    <t>第二批成团！！（连夜下印ing）</t>
-  </si>
-  <si>
-    <t>归离集</t>
-  </si>
-  <si>
-    <t>4*4小麻将</t>
-  </si>
-  <si>
     <t>（心海）</t>
   </si>
   <si>
@@ -344,6 +350,9 @@
     <t>提瓦特美食时间</t>
   </si>
   <si>
+    <t>已排打样</t>
+  </si>
+  <si>
     <t>提纳里</t>
   </si>
   <si>
@@ -401,10 +410,13 @@
     <t>双闪色纸</t>
   </si>
   <si>
-    <t>聆空悠鹤</t>
+    <t>泠若倾颜</t>
   </si>
   <si>
     <t>申鹤</t>
+  </si>
+  <si>
+    <t>9.8-10.30</t>
   </si>
 </sst>
 </file>
@@ -592,6 +604,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC3EAD5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFF9E3"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -605,12 +623,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFBA84"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC3EAD5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1057,31 +1069,34 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1403,10 +1418,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="小料"/>
-  <dimension ref="A1:G46"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.81818181818182" defaultRowHeight="13" outlineLevelCol="6"/>
@@ -1418,31 +1433,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
       <c r="G1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="7" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1450,16 +1465,16 @@
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1467,16 +1482,16 @@
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="8" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1484,16 +1499,16 @@
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="8" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1501,16 +1516,16 @@
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="9" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1518,16 +1533,16 @@
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="9" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1535,16 +1550,16 @@
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="8" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1552,16 +1567,16 @@
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="8" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1569,16 +1584,16 @@
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="8" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1586,16 +1601,16 @@
       <c r="A11">
         <v>9</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="8" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1603,16 +1618,16 @@
       <c r="A12">
         <v>10</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="10" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1620,107 +1635,107 @@
       <c r="A13">
         <v>11</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="7" t="s">
         <v>22</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
         <v>12</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="6" t="s">
+      <c r="B14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="4"/>
+      <c r="E14" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="5"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
         <v>13</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" s="4"/>
+      <c r="E15" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="5"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
         <v>14</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="6" t="s">
+      <c r="B16" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="4"/>
+      <c r="E16" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="5"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17">
         <v>15</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="D17" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="E17" s="11"/>
+      <c r="F17" s="5"/>
+      <c r="G17" t="s">
         <v>40</v>
-      </c>
-      <c r="E17" s="11"/>
-      <c r="F17" s="4"/>
-      <c r="G17" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
         <v>16</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="D18" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="E18" t="s">
         <v>44</v>
-      </c>
-      <c r="E18" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1728,54 +1743,54 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" t="s">
         <v>46</v>
-      </c>
-      <c r="C19" t="s">
-        <v>47</v>
       </c>
       <c r="D19" t="s">
         <v>24</v>
       </c>
-      <c r="E19" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" s="4"/>
+      <c r="E19" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="5"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="B20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" t="s">
         <v>48</v>
-      </c>
-      <c r="C20" t="s">
-        <v>49</v>
       </c>
       <c r="D20" t="s">
         <v>24</v>
       </c>
-      <c r="E20" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" s="4"/>
+      <c r="E20" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="5"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
         <v>19</v>
       </c>
       <c r="B21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" t="s">
         <v>50</v>
-      </c>
-      <c r="C21" t="s">
-        <v>51</v>
       </c>
       <c r="D21" t="s">
         <v>9</v>
       </c>
-      <c r="E21" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="F21" s="4" t="s">
+      <c r="E21" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" s="5" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1792,12 +1807,10 @@
       <c r="D22" t="s">
         <v>24</v>
       </c>
-      <c r="E22" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>52</v>
-      </c>
+      <c r="E22" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F22" s="5"/>
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
@@ -1812,11 +1825,11 @@
       <c r="D23" t="s">
         <v>24</v>
       </c>
-      <c r="E23" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="E23" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1829,11 +1842,8 @@
       <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="E24" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="F24" t="s">
-        <v>52</v>
+      <c r="E24" s="12" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1850,7 +1860,7 @@
         <v>9</v>
       </c>
       <c r="E25" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1858,16 +1868,16 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" t="s">
         <v>61</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>62</v>
       </c>
-      <c r="D26" t="s">
-        <v>63</v>
-      </c>
       <c r="E26" s="10" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1875,16 +1885,16 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C27" t="s">
         <v>21</v>
       </c>
       <c r="D27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1892,63 +1902,61 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D28" t="s">
         <v>24</v>
       </c>
-      <c r="E28" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F28" s="4"/>
+      <c r="E28" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" s="5"/>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
         <v>27</v>
       </c>
       <c r="B29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>67</v>
       </c>
       <c r="D29" t="s">
         <v>24</v>
       </c>
-      <c r="E29" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>52</v>
-      </c>
+      <c r="E29" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F29" s="5"/>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
         <v>28</v>
       </c>
       <c r="B30" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" t="s">
         <v>68</v>
-      </c>
-      <c r="C30" t="s">
-        <v>69</v>
       </c>
       <c r="D30" t="s">
         <v>24</v>
       </c>
-      <c r="E30" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F30" s="4"/>
+      <c r="E30" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" s="5"/>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C31" t="s">
         <v>26</v>
@@ -1956,17 +1964,17 @@
       <c r="D31" t="s">
         <v>24</v>
       </c>
-      <c r="E31" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F31" s="4"/>
+      <c r="E31" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" s="5"/>
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C32" t="s">
         <v>56</v>
@@ -1974,7 +1982,7 @@
       <c r="D32" t="s">
         <v>24</v>
       </c>
-      <c r="E32" s="9" t="s">
+      <c r="E32" s="10" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1983,7 +1991,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C33" t="s">
         <v>18</v>
@@ -1991,26 +1999,26 @@
       <c r="D33" t="s">
         <v>24</v>
       </c>
-      <c r="E33" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F33" s="4"/>
+      <c r="E33" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" s="5"/>
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
         <v>32</v>
       </c>
       <c r="B34" t="s">
+        <v>72</v>
+      </c>
+      <c r="C34" t="s">
         <v>73</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>74</v>
       </c>
-      <c r="D34" t="s">
-        <v>75</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>33</v>
+      <c r="E34" s="4" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -2018,16 +2026,16 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
+        <v>75</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" t="s">
         <v>76</v>
       </c>
-      <c r="C35" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D35" t="s">
-        <v>77</v>
-      </c>
       <c r="E35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2035,7 +2043,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C36" t="s">
         <v>18</v>
@@ -2043,26 +2051,26 @@
       <c r="D36" t="s">
         <v>9</v>
       </c>
-      <c r="E36" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="F36" s="4"/>
+      <c r="E36" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F36" s="5"/>
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D37" t="s">
         <v>9</v>
       </c>
-      <c r="E37" s="1" t="s">
-        <v>33</v>
+      <c r="E37" s="4" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -2070,16 +2078,16 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
+        <v>79</v>
+      </c>
+      <c r="C38" t="s">
         <v>80</v>
-      </c>
-      <c r="C38" t="s">
-        <v>81</v>
       </c>
       <c r="D38" t="s">
         <v>9</v>
       </c>
-      <c r="E38" s="1" t="s">
-        <v>33</v>
+      <c r="E38" s="4" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -2087,16 +2095,16 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
+        <v>81</v>
+      </c>
+      <c r="C39" t="s">
         <v>82</v>
-      </c>
-      <c r="C39" t="s">
-        <v>83</v>
       </c>
       <c r="D39" t="s">
         <v>9</v>
       </c>
-      <c r="E39" s="1" t="s">
-        <v>33</v>
+      <c r="E39" s="4" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -2104,50 +2112,50 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C40" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D40" t="s">
         <v>24</v>
       </c>
-      <c r="E40" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+      <c r="E40" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C41" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D41" t="s">
         <v>24</v>
       </c>
-      <c r="E41" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F41" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+      <c r="E41" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C42" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D42" t="s">
-        <v>63</v>
+        <v>62</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -2155,16 +2163,16 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
+        <v>86</v>
+      </c>
+      <c r="C43" t="s">
         <v>87</v>
       </c>
-      <c r="C43" t="s">
-        <v>88</v>
-      </c>
       <c r="D43" t="s">
-        <v>63</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>33</v>
+        <v>62</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -2172,45 +2180,71 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
+        <v>88</v>
+      </c>
+      <c r="C44" t="s">
+        <v>48</v>
+      </c>
+      <c r="D44" t="s">
         <v>89</v>
       </c>
-      <c r="C44" t="s">
-        <v>49</v>
-      </c>
-      <c r="D44" t="s">
-        <v>90</v>
-      </c>
-      <c r="E44" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+      <c r="E44" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C45" t="s">
         <v>26</v>
       </c>
-      <c r="D45" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="D45" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E45" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C46" t="s">
         <v>32</v>
       </c>
-      <c r="D46" s="6" t="s">
-        <v>40</v>
-      </c>
+      <c r="D46" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>92</v>
+      </c>
+      <c r="C47" t="s">
+        <v>26</v>
+      </c>
+      <c r="D47" t="s">
+        <v>62</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2">
+      <c r="B48" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2271,82 +2305,85 @@
         <v>95</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>96</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L2" t="s">
-        <v>60</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
+        <v>62</v>
+      </c>
+      <c r="C3" t="s">
+        <v>103</v>
       </c>
       <c r="E3" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F3" t="s">
         <v>24</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="2:12">
       <c r="B5" t="s">
-        <v>107</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>33</v>
+        <v>109</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="J5" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K5" t="s">
         <v>26</v>
@@ -2359,28 +2396,31 @@
       <c r="B6" t="s">
         <v>22</v>
       </c>
+      <c r="C6" t="s">
+        <v>111</v>
+      </c>
       <c r="J6" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K6" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="L6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="5:12">
-      <c r="E7" t="s">
-        <v>102</v>
+      <c r="E7" s="5" t="s">
+        <v>104</v>
       </c>
       <c r="F7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="G7" s="3"/>
       <c r="J7" t="s">
-        <v>108</v>
-      </c>
-      <c r="K7" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="K7" s="5" t="s">
         <v>32</v>
       </c>
       <c r="L7" t="s">
@@ -2389,20 +2429,23 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
       </c>
+      <c r="C8" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="F8" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G8" s="3"/>
       <c r="J8" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L8" t="s">
         <v>9</v>
@@ -2413,48 +2456,57 @@
         <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>63</v>
+        <v>62</v>
+      </c>
+      <c r="C9" t="s">
+        <v>103</v>
       </c>
       <c r="G9" s="3"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B10" t="s">
-        <v>114</v>
+        <v>117</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="G10" s="3"/>
     </row>
     <row r="11" spans="2:7">
       <c r="B11" t="s">
-        <v>115</v>
+        <v>118</v>
+      </c>
+      <c r="C11" t="s">
+        <v>103</v>
       </c>
       <c r="E11" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="G11" s="3"/>
     </row>
     <row r="12" spans="5:5">
       <c r="E12" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="5:7">
       <c r="E13" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B14" t="s">
         <v>24</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="G14" s="3"/>
     </row>
@@ -2463,28 +2515,28 @@
         <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C15" t="s">
-        <v>60</v>
+        <v>103</v>
       </c>
       <c r="E15" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="F15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G15" s="3"/>
     </row>
     <row r="16" spans="2:7">
       <c r="B16" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="E16" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F16" t="s">
         <v>24</v>
@@ -2493,24 +2545,24 @@
     </row>
     <row r="17" spans="2:7">
       <c r="B17" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="2:3">
       <c r="B18" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C18" t="s">
-        <v>60</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B20" t="s">
         <v>24</v>
@@ -2518,23 +2570,26 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B21" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B22" t="s">
-        <v>126</v>
+        <v>129</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24" spans="2:2">
@@ -2544,7 +2599,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B26" t="s">
         <v>24</v>
@@ -2552,39 +2607,47 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B27" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>133</v>
+      </c>
       <c r="B28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" t="s">
-        <v>77</v>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B31" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C31" t="s">
-        <v>60</v>
+        <v>103</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B32" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
